--- a/InputData/plcy-schd/FoPITY/Supporting Calculations for Policy Schedules.xlsx
+++ b/InputData/plcy-schd/FoPITY/Supporting Calculations for Policy Schedules.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\plcy-schd\FoPITY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEDC80F-56FE-4F69-9156-9B9DF560C6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7300916-EA8E-48F2-A9A1-CEF97C48C667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19800" yWindow="615" windowWidth="22590" windowHeight="21675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10515" yWindow="240" windowWidth="27855" windowHeight="21855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="8" r:id="rId1"/>
-    <sheet name="R&amp;D Policies" sheetId="2" r:id="rId2"/>
+    <sheet name="Exogenous GDP Adjustment" sheetId="6" r:id="rId2"/>
+    <sheet name="R&amp;D Policies" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="final_year">'R&amp;D Policies'!#REF!</definedName>
@@ -39,7 +40,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+  <si>
+    <t>Year</t>
+  </si>
   <si>
     <t>the end year.  All three of these default patterns are examples chosen to</t>
   </si>
@@ -74,6 +78,87 @@
     <t>Schedules for Non-R&amp;D and R&amp;D Policies</t>
   </si>
   <si>
+    <t>GDP Impact</t>
+  </si>
+  <si>
+    <t>Impact Relative to 2020</t>
+  </si>
+  <si>
+    <t>January STEO</t>
+  </si>
+  <si>
+    <t>January STEO - Adjusted for 2019 value</t>
+  </si>
+  <si>
+    <t>Source: Tables 9a, row 1</t>
+  </si>
+  <si>
+    <t>U.S. Energy Information Administration</t>
+  </si>
+  <si>
+    <t>Short-Term Energy Outlook</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/steo/</t>
+  </si>
+  <si>
+    <t>Table 9a</t>
+  </si>
+  <si>
+    <t>Real GDP (billion chained 2012 dollars)</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>U.S. Congressional Budget Office</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>CBO Projected Growth Rate in Real GDP (January 2020)</t>
+  </si>
+  <si>
+    <t>CBO Projected Growth Rate in Real GDP (July 2020)</t>
+  </si>
+  <si>
+    <t>January 2020 and July 2020 Update</t>
+  </si>
+  <si>
+    <t>The Budget and Economic Outlook: 2020 to 2030</t>
+  </si>
+  <si>
+    <t>https://www.cbo.gov/publication/56020</t>
+  </si>
+  <si>
+    <t>Real GDP percentage change, annual rate</t>
+  </si>
+  <si>
+    <t>2020 U.S. GDP Impact of SARS-CoV-2 Pandemic</t>
+  </si>
+  <si>
+    <t>post-2020 U.S. GDP Impact of SARS-CoV-2 Pandemic</t>
+  </si>
+  <si>
+    <t>https://www.cbo.gov/publication/56442</t>
+  </si>
+  <si>
+    <t>Real GDP Growth Rate</t>
+  </si>
+  <si>
+    <t>BAU GDP Forecast (pre-COVID)</t>
+  </si>
+  <si>
+    <t>BAU GDP Growth Rate</t>
+  </si>
+  <si>
+    <t>January 2020 and November 2020</t>
+  </si>
+  <si>
+    <t>November STEO</t>
+  </si>
+  <si>
     <t>Supporting Calculations for Policy Schedules</t>
   </si>
   <si>
@@ -90,16 +175,16 @@
   </si>
   <si>
     <t>in case the user wishes to use the Mandated Capacity Construction Schedule</t>
-  </si>
-  <si>
-    <t>none needed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,17 +217,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -153,6 +259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +358,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -258,9 +370,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -272,11 +386,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -287,8 +431,10 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Percent" xfId="11" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -963,35 +1109,1845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8D652C-DDA1-4972-BD18-A83039143417}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{478AF3BD-17C6-4A07-8290-EEB161784D3E}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{5E162FBA-EF63-41D9-AB30-FFC22DF9FAE4}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{9ED9574A-4A97-44D9-B5C1-7E55935EC09D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AG55"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2019</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>19092</v>
+      </c>
+      <c r="C3">
+        <v>18411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>19068</v>
+      </c>
+      <c r="C4">
+        <v>19448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f>B3</f>
+        <v>19092</v>
+      </c>
+      <c r="C5" s="21">
+        <f>C4*($B$3/$B$4)</f>
+        <v>19472.478288231592</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="23">
+        <f>(C3-C5)/C5</f>
+        <v>-5.4511720209394626E-2</v>
+      </c>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="15">
+        <f>C8</f>
+        <v>-5.4511720209394626E-2</v>
+      </c>
+      <c r="C12" s="15">
+        <f>B12/B$12</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>19570694229280.551</v>
+      </c>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="26">
+        <f t="shared" ref="B13:B22" si="0">$B$12*C13</f>
+        <v>-4.0603412878822215E-2</v>
+      </c>
+      <c r="C13" s="15">
+        <f>D55</f>
+        <v>0.74485656887827523</v>
+      </c>
+      <c r="D13">
+        <v>19846925958285.945</v>
+      </c>
+      <c r="E13">
+        <f>(D13/D12-1)*100</f>
+        <v>1.4114559543427552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="27">
+        <f t="shared" si="0"/>
+        <v>-3.229580135538155E-2</v>
+      </c>
+      <c r="C14" s="15">
+        <f>E55</f>
+        <v>0.59245610359248302</v>
+      </c>
+      <c r="D14">
+        <v>20136856085592.691</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E42" si="1">(D14/D13-1)*100</f>
+        <v>1.460831404904317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="27">
+        <f t="shared" si="0"/>
+        <v>-2.8662567888898399E-2</v>
+      </c>
+      <c r="C15" s="15">
+        <f>F55</f>
+        <v>0.52580560251625763</v>
+      </c>
+      <c r="D15">
+        <v>20449876595278.277</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.5544656442648019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16" s="27">
+        <f t="shared" si="0"/>
+        <v>-2.3956613276780097E-2</v>
+      </c>
+      <c r="C16" s="28">
+        <f>G55</f>
+        <v>0.43947637654354155</v>
+      </c>
+      <c r="D16">
+        <v>20785071453021.242</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.6391045500018242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17" s="27">
+        <f t="shared" si="0"/>
+        <v>-1.8627342167031654E-2</v>
+      </c>
+      <c r="C17" s="15">
+        <f>H55</f>
+        <v>0.34171260960906885</v>
+      </c>
+      <c r="D17">
+        <v>21137860487214.293</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.697319323584856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18" s="27">
+        <f t="shared" si="0"/>
+        <v>-1.3882030080674637E-2</v>
+      </c>
+      <c r="C18" s="15">
+        <f>I55</f>
+        <v>0.25466138341167571</v>
+      </c>
+      <c r="D18">
+        <v>21504884905345.414</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.7363366474725472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19" s="27">
+        <f t="shared" si="0"/>
+        <v>-1.0330272288025423E-2</v>
+      </c>
+      <c r="C19" s="15">
+        <f>J55</f>
+        <v>0.18950552740482202</v>
+      </c>
+      <c r="D19">
+        <v>21883765124004.84</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.7618332780067414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20" s="27">
+        <f t="shared" si="0"/>
+        <v>-7.438145547233049E-3</v>
+      </c>
+      <c r="C20" s="15">
+        <f>K55</f>
+        <v>0.13645039119406011</v>
+      </c>
+      <c r="D20">
+        <v>22272742778460.578</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.7774713457743063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21" s="27">
+        <f t="shared" si="0"/>
+        <v>-6.680167674790718E-3</v>
+      </c>
+      <c r="C21" s="15">
+        <f>L55</f>
+        <v>0.12254553055985652</v>
+      </c>
+      <c r="D21">
+        <v>22670459610925.633</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.7856661679300556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22" s="27">
+        <f t="shared" si="0"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C22" s="15">
+        <f>M55</f>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D22">
+        <v>23076094349249.734</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.7892656138678964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23" s="27">
+        <f t="shared" ref="B23:B42" si="2">$B$12*C23</f>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C23" s="34">
+        <f>C22</f>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D23">
+        <v>23489489056480.902</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.7914413980744115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C24" s="34">
+        <f t="shared" ref="C24:C42" si="3">C23</f>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D24">
+        <v>23911159659995.598</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.7951459161192451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C25" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D25">
+        <v>24342022194115.273</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1.8019307312832966</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C26" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D26">
+        <v>24783055867942.18</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1.8118201943531531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C27" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D27">
+        <v>25235197774058.039</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.8243993336621633</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2036</v>
+      </c>
+      <c r="B28" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C28" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D28">
+        <v>25699353417654.18</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.8393184303603816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2037</v>
+      </c>
+      <c r="B29" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C29" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D29">
+        <v>26176480949572.586</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1.8565740708116119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2038</v>
+      </c>
+      <c r="B30" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C30" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D30">
+        <v>26667317408922.48</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1.8751048328286002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2039</v>
+      </c>
+      <c r="B31" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C31" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D31">
+        <v>27172315548299.516</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>1.8936968110938368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2040</v>
+      </c>
+      <c r="B32" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C32" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D32">
+        <v>27691759654217.266</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1.9116666924996695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2041</v>
+      </c>
+      <c r="B33" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C33" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D33">
+        <v>28225881367538.613</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1.9288110253405488</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2042</v>
+      </c>
+      <c r="B34" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C34" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D34">
+        <v>28774996562167.52</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1.9454315260476474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2043</v>
+      </c>
+      <c r="B35" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C35" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D35">
+        <v>29339157883754.633</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1.9605956176858674</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2044</v>
+      </c>
+      <c r="B36" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C36" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D36">
+        <v>29918091574916.535</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>1.9732457675019521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2045</v>
+      </c>
+      <c r="B37" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C37" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D37">
+        <v>30511365941317.828</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>1.9829953555550173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2046</v>
+      </c>
+      <c r="B38" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C38" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D38">
+        <v>31118686167314.816</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>1.9904720987091951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2047</v>
+      </c>
+      <c r="B39" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C39" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D39">
+        <v>31739925903345.926</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>1.9963559280456344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2048</v>
+      </c>
+      <c r="B40" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C40" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D40">
+        <v>32374800862897.605</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>2.0002408369981461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2049</v>
+      </c>
+      <c r="B41" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C41" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D41">
+        <v>33022858293374.176</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>2.001734105550157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2050</v>
+      </c>
+      <c r="B42" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.2057794885504499E-3</v>
+      </c>
+      <c r="C42" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="D42">
+        <v>33683645442179.992</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>2.000999256137681</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>2019</v>
+      </c>
+      <c r="C45">
+        <v>2020</v>
+      </c>
+      <c r="D45">
+        <v>2021</v>
+      </c>
+      <c r="E45">
+        <v>2022</v>
+      </c>
+      <c r="F45">
+        <v>2023</v>
+      </c>
+      <c r="G45">
+        <v>2024</v>
+      </c>
+      <c r="H45">
+        <v>2025</v>
+      </c>
+      <c r="I45">
+        <v>2026</v>
+      </c>
+      <c r="J45">
+        <v>2027</v>
+      </c>
+      <c r="K45">
+        <v>2028</v>
+      </c>
+      <c r="L45">
+        <v>2029</v>
+      </c>
+      <c r="M45">
+        <v>2030</v>
+      </c>
+      <c r="N45" s="33">
+        <v>2031</v>
+      </c>
+      <c r="O45" s="33">
+        <v>2032</v>
+      </c>
+      <c r="P45" s="33">
+        <v>2033</v>
+      </c>
+      <c r="Q45" s="33">
+        <v>2034</v>
+      </c>
+      <c r="R45" s="33">
+        <v>2035</v>
+      </c>
+      <c r="S45" s="33">
+        <v>2036</v>
+      </c>
+      <c r="T45" s="33">
+        <v>2037</v>
+      </c>
+      <c r="U45" s="33">
+        <v>2038</v>
+      </c>
+      <c r="V45" s="33">
+        <v>2039</v>
+      </c>
+      <c r="W45" s="33">
+        <v>2040</v>
+      </c>
+      <c r="X45" s="33">
+        <v>2041</v>
+      </c>
+      <c r="Y45" s="33">
+        <v>2042</v>
+      </c>
+      <c r="Z45" s="33">
+        <v>2043</v>
+      </c>
+      <c r="AA45" s="33">
+        <v>2044</v>
+      </c>
+      <c r="AB45" s="33">
+        <v>2045</v>
+      </c>
+      <c r="AC45" s="33">
+        <v>2046</v>
+      </c>
+      <c r="AD45" s="33">
+        <v>2047</v>
+      </c>
+      <c r="AE45" s="33">
+        <v>2048</v>
+      </c>
+      <c r="AF45" s="33">
+        <v>2049</v>
+      </c>
+      <c r="AG45" s="33">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46">
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="C46">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="D46">
+        <v>1.752</v>
+      </c>
+      <c r="E46">
+        <v>1.617</v>
+      </c>
+      <c r="F46">
+        <v>1.573</v>
+      </c>
+      <c r="G46">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="H46">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="I46">
+        <v>1.64</v>
+      </c>
+      <c r="J46">
+        <v>1.792</v>
+      </c>
+      <c r="K46">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="L46">
+        <v>1.748</v>
+      </c>
+      <c r="M46">
+        <v>1.72</v>
+      </c>
+      <c r="N46">
+        <f t="array" ref="N46:AG46">TRANSPOSE(E23:E42)</f>
+        <v>1.7914413980744115</v>
+      </c>
+      <c r="O46">
+        <v>1.7951459161192451</v>
+      </c>
+      <c r="P46">
+        <v>1.8019307312832966</v>
+      </c>
+      <c r="Q46">
+        <v>1.8118201943531531</v>
+      </c>
+      <c r="R46">
+        <v>1.8243993336621633</v>
+      </c>
+      <c r="S46">
+        <v>1.8393184303603816</v>
+      </c>
+      <c r="T46">
+        <v>1.8565740708116119</v>
+      </c>
+      <c r="U46">
+        <v>1.8751048328286002</v>
+      </c>
+      <c r="V46">
+        <v>1.8936968110938368</v>
+      </c>
+      <c r="W46">
+        <v>1.9116666924996695</v>
+      </c>
+      <c r="X46">
+        <v>1.9288110253405488</v>
+      </c>
+      <c r="Y46">
+        <v>1.9454315260476474</v>
+      </c>
+      <c r="Z46">
+        <v>1.9605956176858674</v>
+      </c>
+      <c r="AA46">
+        <v>1.9732457675019521</v>
+      </c>
+      <c r="AB46">
+        <v>1.9829953555550173</v>
+      </c>
+      <c r="AC46">
+        <v>1.9904720987091951</v>
+      </c>
+      <c r="AD46">
+        <v>1.9963559280456344</v>
+      </c>
+      <c r="AE46">
+        <v>2.0002408369981461</v>
+      </c>
+      <c r="AF46">
+        <v>2.001734105550157</v>
+      </c>
+      <c r="AG46">
+        <v>2.000999256137681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <f>B4</f>
+        <v>19068</v>
+      </c>
+      <c r="C47">
+        <f>B47*(1+C46/100)</f>
+        <v>19489.784159999999</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:M47" si="4">C47*(1+D46/100)</f>
+        <v>19831.245178483197</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>20151.916413019269</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>20468.906058196062</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>20783.922522431702</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>21099.630305547438</v>
+      </c>
+      <c r="I47">
+        <f>H47*(1+I46/100)</f>
+        <v>21445.664242558414</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>21829.970545785058</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="4"/>
+        <v>22203.917941234358</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>22592.042426847132</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="4"/>
+        <v>22980.625556588904</v>
+      </c>
+      <c r="N47">
+        <f t="shared" ref="N47" si="5">M47*(1+N46/100)</f>
+        <v>23392.309996346106</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ref="O47" si="6">N47*(1+O46/100)</f>
+        <v>23812.236093931468</v>
+      </c>
+      <c r="P47">
+        <f t="shared" ref="P47" si="7">O47*(1+P46/100)</f>
+        <v>24241.316093913752</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ref="Q47" si="8">P47*(1+Q46/100)</f>
+        <v>24680.525154280262</v>
+      </c>
+      <c r="R47">
+        <f t="shared" ref="R47" si="9">Q47*(1+R46/100)</f>
+        <v>25130.796490739274</v>
+      </c>
+      <c r="S47">
+        <f t="shared" ref="S47" si="10">R47*(1+S46/100)</f>
+        <v>25593.031862289801</v>
+      </c>
+      <c r="T47">
+        <f t="shared" ref="T47" si="11">S47*(1+T46/100)</f>
+        <v>26068.185455779629</v>
+      </c>
+      <c r="U47">
+        <f t="shared" ref="U47" si="12">T47*(1+U46/100)</f>
+        <v>26556.991261091676</v>
+      </c>
+      <c r="V47">
+        <f t="shared" ref="V47" si="13">U47*(1+V46/100)</f>
+        <v>27059.900157725438</v>
+      </c>
+      <c r="W47">
+        <f t="shared" ref="W47" si="14">V47*(1+W46/100)</f>
+        <v>27577.19525606434</v>
+      </c>
+      <c r="X47">
+        <f t="shared" ref="X47" si="15">W47*(1+X46/100)</f>
+        <v>28109.107238642999</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" ref="Y47" si="16">X47*(1+Y46/100)</f>
+        <v>28655.9506725541</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" ref="Z47" si="17">Y47*(1+Z46/100)</f>
+        <v>29217.777985646419</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" ref="AA47" si="18">Z47*(1+AA46/100)</f>
+        <v>29794.316553106302</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" ref="AB47" si="19">AA47*(1+AB46/100)</f>
+        <v>30385.13646657376</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" ref="AC47" si="20">AB47*(1+AC46/100)</f>
+        <v>30989.944130095624</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" ref="AD47" si="21">AC47*(1+AD46/100)</f>
+        <v>31608.613716834818</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" ref="AE47" si="22">AD47*(1+AE46/100)</f>
+        <v>32240.862116407945</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" ref="AF47" si="23">AE47*(1+AF46/100)</f>
+        <v>32886.238449315482</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" ref="AG47" si="24">AF47*(1+AG46/100)</f>
+        <v>33544.29183605795</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+    </row>
+    <row r="50" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C50" s="11">
+        <v>2020</v>
+      </c>
+      <c r="D50" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E50" s="11">
+        <v>2022</v>
+      </c>
+      <c r="F50" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G50" s="11">
+        <v>2024</v>
+      </c>
+      <c r="H50" s="11">
+        <v>2025</v>
+      </c>
+      <c r="I50" s="11">
+        <v>2026</v>
+      </c>
+      <c r="J50" s="11">
+        <v>2027</v>
+      </c>
+      <c r="K50" s="11">
+        <v>2028</v>
+      </c>
+      <c r="L50" s="11">
+        <v>2029</v>
+      </c>
+      <c r="M50" s="11">
+        <v>2030</v>
+      </c>
+      <c r="N50" s="33">
+        <v>2031</v>
+      </c>
+      <c r="O50" s="33">
+        <v>2032</v>
+      </c>
+      <c r="P50" s="33">
+        <v>2033</v>
+      </c>
+      <c r="Q50" s="33">
+        <v>2034</v>
+      </c>
+      <c r="R50" s="33">
+        <v>2035</v>
+      </c>
+      <c r="S50" s="33">
+        <v>2036</v>
+      </c>
+      <c r="T50" s="33">
+        <v>2037</v>
+      </c>
+      <c r="U50" s="33">
+        <v>2038</v>
+      </c>
+      <c r="V50" s="33">
+        <v>2039</v>
+      </c>
+      <c r="W50" s="33">
+        <v>2040</v>
+      </c>
+      <c r="X50" s="33">
+        <v>2041</v>
+      </c>
+      <c r="Y50" s="33">
+        <v>2042</v>
+      </c>
+      <c r="Z50" s="33">
+        <v>2043</v>
+      </c>
+      <c r="AA50" s="33">
+        <v>2044</v>
+      </c>
+      <c r="AB50" s="33">
+        <v>2045</v>
+      </c>
+      <c r="AC50" s="33">
+        <v>2046</v>
+      </c>
+      <c r="AD50" s="33">
+        <v>2047</v>
+      </c>
+      <c r="AE50" s="33">
+        <v>2048</v>
+      </c>
+      <c r="AF50" s="33">
+        <v>2049</v>
+      </c>
+      <c r="AG50" s="33">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51">
+        <v>-5.7930000000000001</v>
+      </c>
+      <c r="D51">
+        <v>3.9580000000000002</v>
+      </c>
+      <c r="E51">
+        <v>2.9049999999999998</v>
+      </c>
+      <c r="F51">
+        <v>2.129</v>
+      </c>
+      <c r="G51">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="H51">
+        <v>2.3239999999999998</v>
+      </c>
+      <c r="I51">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="J51">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="K51">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="L51">
+        <v>1.86</v>
+      </c>
+      <c r="M51">
+        <v>1.79</v>
+      </c>
+      <c r="N51">
+        <f>N46</f>
+        <v>1.7914413980744115</v>
+      </c>
+      <c r="O51">
+        <f t="shared" ref="O51:AG51" si="25">O46</f>
+        <v>1.7951459161192451</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="25"/>
+        <v>1.8019307312832966</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="25"/>
+        <v>1.8118201943531531</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="25"/>
+        <v>1.8243993336621633</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="25"/>
+        <v>1.8393184303603816</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="25"/>
+        <v>1.8565740708116119</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="25"/>
+        <v>1.8751048328286002</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="25"/>
+        <v>1.8936968110938368</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="25"/>
+        <v>1.9116666924996695</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="25"/>
+        <v>1.9288110253405488</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="25"/>
+        <v>1.9454315260476474</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="25"/>
+        <v>1.9605956176858674</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="25"/>
+        <v>1.9732457675019521</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="25"/>
+        <v>1.9829953555550173</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="25"/>
+        <v>1.9904720987091951</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="25"/>
+        <v>1.9963559280456344</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="25"/>
+        <v>2.0002408369981461</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="25"/>
+        <v>2.001734105550157</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="25"/>
+        <v>2.000999256137681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <f>B4</f>
+        <v>19068</v>
+      </c>
+      <c r="C52">
+        <f>B52*(1+C51/100)</f>
+        <v>17963.390759999998</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:M52" si="26">C52*(1+D51/100)</f>
+        <v>18674.381766280796</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="26"/>
+        <v>19216.872556591254</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="26"/>
+        <v>19625.99977332108</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="26"/>
+        <v>20068.566068209471</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="26"/>
+        <v>20534.959543634657</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="26"/>
+        <v>21017.941792100944</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="26"/>
+        <v>21505.97840051353</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="26"/>
+        <v>21966.636457852528</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="26"/>
+        <v>22375.215895968584</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="26"/>
+        <v>22775.732260506422</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ref="N52" si="27">M52*(1+N51/100)</f>
+        <v>23183.746156935722</v>
+      </c>
+      <c r="O52">
+        <f t="shared" ref="O52" si="28">N52*(1+O51/100)</f>
+        <v>23599.928229275407</v>
+      </c>
+      <c r="P52">
+        <f t="shared" ref="P52" si="29">O52*(1+P51/100)</f>
+        <v>24025.182588599524</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" ref="Q52" si="30">P52*(1+Q51/100)</f>
+        <v>24460.475698469989</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ref="R52" si="31">Q52*(1+R51/100)</f>
+        <v>24906.73245412347</v>
+      </c>
+      <c r="S52">
+        <f t="shared" ref="S52" si="32">R52*(1+S51/100)</f>
+        <v>25364.846574552714</v>
+      </c>
+      <c r="T52">
+        <f t="shared" ref="T52" si="33">S52*(1+T51/100)</f>
+        <v>25835.763739157006</v>
+      </c>
+      <c r="U52">
+        <f t="shared" ref="U52" si="34">T52*(1+U51/100)</f>
+        <v>26320.211393628117</v>
+      </c>
+      <c r="V52">
+        <f t="shared" ref="V52" si="35">U52*(1+V51/100)</f>
+        <v>26818.636397462407</v>
+      </c>
+      <c r="W52">
+        <f t="shared" ref="W52" si="36">V52*(1+W51/100)</f>
+        <v>27331.319336855289</v>
+      </c>
+      <c r="X52">
+        <f t="shared" ref="X52" si="37">W52*(1+X51/100)</f>
+        <v>27858.488837595589</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" ref="Y52" si="38">X52*(1+Y51/100)</f>
+        <v>28400.456662122637</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" ref="Z52" si="39">Y52*(1+Z51/100)</f>
+        <v>28957.274770842989</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" ref="AA52" si="40">Z52*(1+AA51/100)</f>
+        <v>29528.672969642557</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" ref="AB52" si="41">AA52*(1+AB51/100)</f>
+        <v>30114.225183187598</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" ref="AC52" si="42">AB52*(1+AC51/100)</f>
+        <v>30713.640433201406</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" ref="AD52" si="43">AC52*(1+AD51/100)</f>
+        <v>31326.794014708245</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" ref="AE52" si="44">AD52*(1+AE51/100)</f>
+        <v>31953.405341512731</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" ref="AF52" si="45">AE52*(1+AF51/100)</f>
+        <v>32593.027554118478</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" ref="AG52" si="46">AF52*(1+AG51/100)</f>
+        <v>33245.213793029136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <f>C52/C47-1</f>
+        <v>-7.8317614370132738E-2</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:L54" si="47">D52/D47-1</f>
+        <v>-5.8335389522468972E-2</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="47"/>
+        <v>-4.6399748652387496E-2</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="47"/>
+        <v>-4.1179840411523561E-2</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="47"/>
+        <v>-3.4418741382920337E-2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="47"/>
+        <v>-2.676211638477477E-2</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="47"/>
+        <v>-1.9944472021000137E-2</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="47"/>
+        <v>-1.4841620816299472E-2</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="47"/>
+        <v>-1.0686469118190156E-2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="47"/>
+        <v>-9.5974736051701592E-3</v>
+      </c>
+      <c r="M54">
+        <f>M52/M47-1</f>
+        <v>-8.9159146507105103E-3</v>
+      </c>
+      <c r="N54">
+        <f t="shared" ref="N54:AG54" si="48">N52/N47-1</f>
+        <v>-8.9159146507105103E-3</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507105103E-3</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507103992E-3</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507103992E-3</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507103992E-3</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507103992E-3</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507103992E-3</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507105103E-3</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507106213E-3</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507106213E-3</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507105103E-3</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507105103E-3</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507103992E-3</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507103992E-3</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507105103E-3</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507103992E-3</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507103992E-3</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507103992E-3</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507102882E-3</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="48"/>
+        <v>-8.9159146507103992E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <f>C54/$C$54</f>
+        <v>1</v>
+      </c>
+      <c r="D55" s="35">
+        <f t="shared" ref="D55:AG55" si="49">D54/$C$54</f>
+        <v>0.74485656887827523</v>
+      </c>
+      <c r="E55" s="35">
+        <f t="shared" si="49"/>
+        <v>0.59245610359248302</v>
+      </c>
+      <c r="F55" s="35">
+        <f t="shared" si="49"/>
+        <v>0.52580560251625763</v>
+      </c>
+      <c r="G55" s="35">
+        <f t="shared" si="49"/>
+        <v>0.43947637654354155</v>
+      </c>
+      <c r="H55" s="35">
+        <f t="shared" si="49"/>
+        <v>0.34171260960906885</v>
+      </c>
+      <c r="I55" s="35">
+        <f t="shared" si="49"/>
+        <v>0.25466138341167571</v>
+      </c>
+      <c r="J55" s="35">
+        <f t="shared" si="49"/>
+        <v>0.18950552740482202</v>
+      </c>
+      <c r="K55" s="35">
+        <f t="shared" si="49"/>
+        <v>0.13645039119406011</v>
+      </c>
+      <c r="L55" s="35">
+        <f t="shared" si="49"/>
+        <v>0.12254553055985652</v>
+      </c>
+      <c r="M55" s="35">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002629</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002629</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002629</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002629</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002629</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002912</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002912</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002629</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002629</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002771</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002629</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002629</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002629</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002488</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="49"/>
+        <v>0.11384303164002629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE47"/>
   <sheetViews>
@@ -1003,70 +2959,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1074,7 +3030,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>1.0249999999999999</v>
@@ -1084,7 +3040,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>-0.28999999999999998</v>
@@ -1094,7 +3050,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="9">
         <v>-15.5</v>
@@ -1103,97 +3059,97 @@
       <c r="D17" s="10"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="13">
         <v>2020</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="13">
         <v>2022</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="13">
         <v>2023</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="13">
         <v>2024</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="13">
         <v>2025</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="13">
         <v>2026</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="13">
         <v>2027</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="13">
         <v>2028</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="13">
         <v>2029</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="13">
         <v>2030</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="13">
         <v>2031</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="13">
         <v>2032</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="13">
         <v>2033</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O46" s="13">
         <v>2034</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P46" s="13">
         <v>2035</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="Q46" s="13">
         <v>2036</v>
       </c>
-      <c r="R46" s="11">
+      <c r="R46" s="13">
         <v>2037</v>
       </c>
-      <c r="S46" s="11">
+      <c r="S46" s="13">
         <v>2038</v>
       </c>
-      <c r="T46" s="11">
+      <c r="T46" s="13">
         <v>2039</v>
       </c>
-      <c r="U46" s="11">
+      <c r="U46" s="13">
         <v>2040</v>
       </c>
-      <c r="V46" s="11">
+      <c r="V46" s="13">
         <v>2041</v>
       </c>
-      <c r="W46" s="11">
+      <c r="W46" s="13">
         <v>2042</v>
       </c>
-      <c r="X46" s="11">
+      <c r="X46" s="13">
         <v>2043</v>
       </c>
-      <c r="Y46" s="11">
+      <c r="Y46" s="13">
         <v>2044</v>
       </c>
-      <c r="Z46" s="11">
+      <c r="Z46" s="13">
         <v>2045</v>
       </c>
-      <c r="AA46" s="11">
+      <c r="AA46" s="13">
         <v>2046</v>
       </c>
-      <c r="AB46" s="11">
+      <c r="AB46" s="13">
         <v>2047</v>
       </c>
-      <c r="AC46" s="11">
+      <c r="AC46" s="13">
         <v>2048</v>
       </c>
-      <c r="AD46" s="11">
+      <c r="AD46" s="13">
         <v>2049</v>
       </c>
-      <c r="AE46" s="11">
+      <c r="AE46" s="13">
         <v>2050</v>
       </c>
     </row>
